--- a/Documentation/RBLAnnualReportTemplateDetails - NOTES ONLY.xlsx
+++ b/Documentation/RBLAnnualReportTemplateDetails - NOTES ONLY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="23040" windowHeight="8987"/>
   </bookViews>
   <sheets>
     <sheet name="06 Report Details Mapping (2)" sheetId="15" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="190">
   <si>
     <t>Valid From Date (PK)</t>
   </si>
@@ -589,275 +589,6 @@
   <si>
     <t>Rapport om årsredovisningen enligt Rex – Svensk standard för
 redovisningsuppdrag har upprättats av Srf Auktoriserad Redovisningskonsult:</t>
-  </si>
-  <si>
-    <t>Management Statement</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>Verksamhet</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>General information about the business</t>
-  </si>
-  <si>
-    <t>Allmänt om verksamheten</t>
-  </si>
-  <si>
-    <t>520000</t>
-  </si>
-  <si>
-    <t>Total General information about the business</t>
-  </si>
-  <si>
-    <t>Summa Allmänt om verksamheten</t>
-  </si>
-  <si>
-    <t>530000</t>
-  </si>
-  <si>
-    <t>Significant events during the financial year</t>
-  </si>
-  <si>
-    <t>Väsentliga händelser under räkenskapsåret</t>
-  </si>
-  <si>
-    <t>540000</t>
-  </si>
-  <si>
-    <t>Total Significant events during the financial year</t>
-  </si>
-  <si>
-    <t>Summa Väsentliga händelser under räkenskapsåret</t>
-  </si>
-  <si>
-    <t>550000</t>
-  </si>
-  <si>
-    <t>Own shares</t>
-  </si>
-  <si>
-    <t>Egna aktier</t>
-  </si>
-  <si>
-    <t>560000</t>
-  </si>
-  <si>
-    <t>Total Own shares</t>
-  </si>
-  <si>
-    <t>Summa Egna aktier</t>
-  </si>
-  <si>
-    <t>570000</t>
-  </si>
-  <si>
-    <t>Multi-year overview</t>
-  </si>
-  <si>
-    <t>Flerårsöversikt</t>
-  </si>
-  <si>
-    <t>580000</t>
-  </si>
-  <si>
-    <t>Net sales in SEK thousand</t>
-  </si>
-  <si>
-    <t>Nettoomsättning, tkr</t>
-  </si>
-  <si>
-    <t>590000</t>
-  </si>
-  <si>
-    <t>Profit after financial items in SEK thousand</t>
-  </si>
-  <si>
-    <t>Resultat efter finansiella poster i tkr</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>Solidity</t>
-  </si>
-  <si>
-    <t>Soliditet</t>
-  </si>
-  <si>
-    <t>610000</t>
-  </si>
-  <si>
-    <t>Definition of key figures:</t>
-  </si>
-  <si>
-    <t>Definition av nyckeltal:</t>
-  </si>
-  <si>
-    <t>620000</t>
-  </si>
-  <si>
-    <t>Total Solidity</t>
-  </si>
-  <si>
-    <t>Summa Soliditet</t>
-  </si>
-  <si>
-    <t>630000</t>
-  </si>
-  <si>
-    <t>Changes in equity</t>
-  </si>
-  <si>
-    <t>Förändringar i eget kapital</t>
-  </si>
-  <si>
-    <t>640000</t>
-  </si>
-  <si>
-    <t>This year's changes of own
-capital</t>
-  </si>
-  <si>
-    <t>Årets förändringar av eget kapital</t>
-  </si>
-  <si>
-    <t>650000</t>
-  </si>
-  <si>
-    <t>Amount at the beginning of the year</t>
-  </si>
-  <si>
-    <t>Belopp vid årets ingång</t>
-  </si>
-  <si>
-    <t>Total Amount at the beginning of the year</t>
-  </si>
-  <si>
-    <t>Summa Belopp vid årets ingång</t>
-  </si>
-  <si>
-    <t>660000</t>
-  </si>
-  <si>
-    <t>Disposition of the previous year
-results</t>
-  </si>
-  <si>
-    <t>Disposition av föregående års resultat</t>
-  </si>
-  <si>
-    <t>670000</t>
-  </si>
-  <si>
-    <t>Dividend</t>
-  </si>
-  <si>
-    <t>Utdelning</t>
-  </si>
-  <si>
-    <t>680000</t>
-  </si>
-  <si>
-    <t>Balanced in new account</t>
-  </si>
-  <si>
-    <t>Balanseras i ny räkning</t>
-  </si>
-  <si>
-    <t>690000</t>
-  </si>
-  <si>
-    <t>This year's results</t>
-  </si>
-  <si>
-    <t>Årets resultat</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>Amount at the end of the year</t>
-  </si>
-  <si>
-    <t>Belopp vid årets utgång</t>
-  </si>
-  <si>
-    <t>710000</t>
-  </si>
-  <si>
-    <t>Proposal for allocation of profit</t>
-  </si>
-  <si>
-    <t>Förslag till resultatdisposition</t>
-  </si>
-  <si>
-    <t>720000</t>
-  </si>
-  <si>
-    <t>The board proposes that available funds</t>
-  </si>
-  <si>
-    <t>Styrelsen föreslår att till förfogande stående medel</t>
-  </si>
-  <si>
-    <t>730000</t>
-  </si>
-  <si>
-    <t>balanced result</t>
-  </si>
-  <si>
-    <t>balanserat resultat</t>
-  </si>
-  <si>
-    <t>740000</t>
-  </si>
-  <si>
-    <t>the year's results</t>
-  </si>
-  <si>
-    <t>årets resultat</t>
-  </si>
-  <si>
-    <t>750000</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Totalt</t>
-  </si>
-  <si>
-    <t>760000</t>
-  </si>
-  <si>
-    <t>available for</t>
-  </si>
-  <si>
-    <t>disponeras för</t>
-  </si>
-  <si>
-    <t>dividend</t>
-  </si>
-  <si>
-    <t>utdelning</t>
-  </si>
-  <si>
-    <t>transfer to balance sheet</t>
-  </si>
-  <si>
-    <t>överföring till balanserat resultat</t>
-  </si>
-  <si>
-    <t>800000</t>
   </si>
 </sst>
 </file>
@@ -865,10 +596,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="26">
@@ -924,58 +655,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -989,14 +668,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1031,15 +702,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,12 +741,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -1119,7 +850,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,7 +904,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,19 +952,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,61 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,19 +994,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,31 +1018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,15 +1035,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1331,27 +1053,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1361,7 +1066,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1396,6 +1101,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1404,10 +1124,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1416,143 +1153,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1636,61 +1367,58 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1903,10 +1631,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C41" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -2598,7 +2326,7 @@
       <c r="R16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="S16" s="30" t="s">
+      <c r="S16" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2985,7 +2713,7 @@
       <c r="R25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="S25" s="30" t="s">
+      <c r="S25" s="29" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3108,7 +2836,7 @@
       <c r="R28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="S28" s="30" t="s">
+      <c r="S28" s="29" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3190,7 +2918,7 @@
       <c r="R30" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S30" s="30" t="s">
+      <c r="S30" s="29" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3233,7 +2961,7 @@
       <c r="R31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S31" s="30" t="s">
+      <c r="S31" s="29" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3321,7 +3049,7 @@
       <c r="R33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S33" s="30" t="s">
+      <c r="S33" s="29" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4009,807 +3737,6 @@
       <c r="R50" s="21"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" customHeight="1" spans="1:12">
-      <c r="A51" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:12">
-      <c r="A52" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="L52" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:12">
-      <c r="A53" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="23"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:12">
-      <c r="A54" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L54" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:12">
-      <c r="A55" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="L55" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:12">
-      <c r="A56" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="L56" s="23"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:12">
-      <c r="A57" s="2"/>
-      <c r="C57" s="4"/>
-      <c r="F57" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" s="4"/>
-      <c r="K57" t="s">
-        <v>204</v>
-      </c>
-      <c r="L57" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:12">
-      <c r="A58" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L58" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:12">
-      <c r="A59" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:12">
-      <c r="A60" s="2"/>
-      <c r="C60" s="4"/>
-      <c r="F60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="L60" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:12">
-      <c r="A61" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K61" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="L61" s="23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:12">
-      <c r="A62" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:12">
-      <c r="A63" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:12">
-      <c r="A64" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:12">
-      <c r="A65" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="L65" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:12">
-      <c r="A66" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K66" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="L66" s="29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:12">
-      <c r="A67" s="2"/>
-      <c r="C67" s="4"/>
-      <c r="F67" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J67" s="4"/>
-      <c r="K67" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="L67" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:12">
-      <c r="A68" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="K68" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="L68" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:12">
-      <c r="A69" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:12">
-      <c r="A70" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:12">
-      <c r="A71" s="2"/>
-      <c r="C71" s="4"/>
-      <c r="F71" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J71" s="4"/>
-      <c r="K71" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:12">
-      <c r="A72" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K72" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="L72" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:12">
-      <c r="A73" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:12">
-      <c r="A74" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:12">
-      <c r="A75" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:12">
-      <c r="A76" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G76"/>
-      <c r="H76" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:12">
-      <c r="A77" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K77" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="L77" s="23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:12">
-      <c r="A78" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K78" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="L78" s="23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:12">
-      <c r="A79" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:12">
-      <c r="A80" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:12">
-      <c r="A81" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:12">
-      <c r="A82" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="K82" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="L82" s="23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:12">
-      <c r="A83" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J83" s="4">
-        <v>770000</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:12">
-      <c r="A84" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J84" s="4">
-        <v>780000</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:12">
-      <c r="A85" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J85" s="4">
-        <v>790000</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:12">
-      <c r="A86" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:S50">
     <extLst/>
